--- a/data/trans_orig/P5703-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5703-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55EC97E1-410A-4559-9C2F-105F80D9A830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B666EC6-D5D8-4E62-9DC3-5A3C155E30D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34056CAF-9915-47EC-BC44-D7B5F337763A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9779B4AE-1D2D-4F16-9166-28A45864974A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="677">
   <si>
     <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1966 +77,1999 @@
     <t>38,92%</t>
   </si>
   <si>
-    <t>35,95%</t>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>Casi como deseo</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2015 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>Casi como deseo</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2023 (Tasa respuesta: 99,49%)</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>28,43%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2012 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2015 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2023 (Tasa respuesta: 99,49%)</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>2,89%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>2,46%</t>
+    <t>1,78%</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762187B2-AC63-4744-A182-61CFED6BB4A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0522C5A-1323-4E24-8033-C20E3558B434}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2895,13 +2928,13 @@
         <v>751049</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>1547</v>
@@ -2910,13 +2943,13 @@
         <v>1593255</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2964,13 @@
         <v>477833</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>412</v>
@@ -2946,13 +2979,13 @@
         <v>414172</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>886</v>
@@ -2961,13 +2994,13 @@
         <v>892006</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +3015,13 @@
         <v>273373</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>267</v>
@@ -2997,13 +3030,13 @@
         <v>279394</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M12" s="7">
         <v>539</v>
@@ -3296,7 +3329,7 @@
         <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -3305,13 +3338,13 @@
         <v>52208</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -3320,13 +3353,13 @@
         <v>140726</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,10 +3374,10 @@
         <v>23011</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>134</v>
@@ -3374,10 +3407,10 @@
         <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3425,7 @@
         <v>9082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>141</v>
@@ -3428,7 +3461,7 @@
         <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3529,13 @@
         <v>1524927</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>1494</v>
@@ -3511,13 +3544,13 @@
         <v>1519980</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>2975</v>
@@ -3526,13 +3559,13 @@
         <v>3044906</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3580,13 @@
         <v>922789</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>863</v>
@@ -3562,13 +3595,13 @@
         <v>878940</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>1778</v>
@@ -3580,10 +3613,10 @@
         <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3631,13 @@
         <v>586249</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>605</v>
@@ -3613,13 +3646,13 @@
         <v>626614</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>1193</v>
@@ -3628,13 +3661,13 @@
         <v>1212863</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3682,13 @@
         <v>203741</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>275</v>
@@ -3664,13 +3697,13 @@
         <v>289581</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>471</v>
@@ -3679,13 +3712,13 @@
         <v>493323</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3733,13 @@
         <v>36249</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -3715,13 +3748,13 @@
         <v>64083</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -3730,13 +3763,13 @@
         <v>100331</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,7 +3825,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3811,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0662E4C-75AE-41E8-9546-4E9A6E994FC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429E595B-F479-433B-AEF6-4DF7EC0F620A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3828,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3935,13 +3968,13 @@
         <v>401345</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>480</v>
@@ -3950,13 +3983,13 @@
         <v>513479</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>861</v>
@@ -3965,13 +3998,13 @@
         <v>914824</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +4019,13 @@
         <v>265437</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -4001,13 +4034,13 @@
         <v>417938</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>632</v>
@@ -4016,13 +4049,13 @@
         <v>683375</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4070,13 @@
         <v>233901</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H6" s="7">
         <v>251</v>
@@ -4094,7 +4127,7 @@
         <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>83</v>
@@ -4103,13 +4136,13 @@
         <v>90674</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -4118,13 +4151,13 @@
         <v>146671</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4172,13 @@
         <v>12977</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -4154,13 +4187,13 @@
         <v>39032</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -4169,13 +4202,13 @@
         <v>52009</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4276,13 @@
         <v>957535</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>725</v>
@@ -4258,13 +4291,13 @@
         <v>769652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>1635</v>
@@ -4273,10 +4306,10 @@
         <v>1727187</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>244</v>
@@ -4399,10 +4432,10 @@
         <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4411,13 +4444,13 @@
         <v>77294</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>152</v>
@@ -4426,13 +4459,13 @@
         <v>165002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4480,13 @@
         <v>22947</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4462,13 +4495,13 @@
         <v>46877</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -4477,13 +4510,13 @@
         <v>69824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4584,13 @@
         <v>253295</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
@@ -4566,13 +4599,13 @@
         <v>243857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>450</v>
@@ -4581,13 +4614,13 @@
         <v>497153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4635,13 @@
         <v>130114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>126</v>
@@ -4617,13 +4650,13 @@
         <v>143289</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>250</v>
@@ -4632,10 +4665,10 @@
         <v>273403</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>294</v>
@@ -4707,10 +4740,10 @@
         <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4719,13 +4752,13 @@
         <v>18058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -4734,13 +4767,13 @@
         <v>32420</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4788,13 @@
         <v>11131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4770,13 +4803,13 @@
         <v>3866</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -4785,13 +4818,13 @@
         <v>14997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4892,13 @@
         <v>1612176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>1424</v>
@@ -4874,13 +4907,13 @@
         <v>1526988</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>2946</v>
@@ -4889,13 +4922,13 @@
         <v>3139164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4943,13 @@
         <v>977230</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H23" s="7">
         <v>1017</v>
@@ -4925,28 +4958,28 @@
         <v>1097837</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>1931</v>
       </c>
       <c r="N23" s="7">
-        <v>2075068</v>
+        <v>2075067</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4994,13 @@
         <v>612826</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>174</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>590</v>
@@ -4976,13 +5009,13 @@
         <v>641699</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>1155</v>
@@ -4991,13 +5024,13 @@
         <v>1254525</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5045,13 @@
         <v>158067</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>170</v>
@@ -5027,13 +5060,13 @@
         <v>186026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>341</v>
+        <v>269</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>317</v>
@@ -5042,13 +5075,13 @@
         <v>344093</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5096,13 @@
         <v>47055</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -5078,13 +5111,13 @@
         <v>89775</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>126</v>
@@ -5093,13 +5126,13 @@
         <v>136829</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5174,7 @@
         <v>6475</v>
       </c>
       <c r="N27" s="7">
-        <v>6949679</v>
+        <v>6949678</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5155,7 +5188,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5174,7 +5207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA4DC01-8BF1-446F-8BD6-995539E0B26E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B130128D-A92B-4C69-88B7-7382635F8B72}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5191,7 +5224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5298,13 +5331,13 @@
         <v>286107</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>308</v>
@@ -5313,13 +5346,13 @@
         <v>339120</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>597</v>
@@ -5328,13 +5361,13 @@
         <v>625227</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5382,13 @@
         <v>206075</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H5" s="7">
         <v>239</v>
@@ -5364,13 +5397,13 @@
         <v>269815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M5" s="7">
         <v>444</v>
@@ -5379,13 +5412,13 @@
         <v>475890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5433,13 @@
         <v>180489</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>115</v>
+        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>220</v>
@@ -5415,13 +5448,13 @@
         <v>244769</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>163</v>
+        <v>384</v>
       </c>
       <c r="M6" s="7">
         <v>406</v>
@@ -5430,13 +5463,13 @@
         <v>425258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5484,13 @@
         <v>50610</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -5466,13 +5499,13 @@
         <v>98722</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>384</v>
+        <v>49</v>
       </c>
       <c r="M7" s="7">
         <v>140</v>
@@ -5481,13 +5514,13 @@
         <v>149332</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5535,13 @@
         <v>30202</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H8" s="7">
         <v>35</v>
@@ -5517,13 +5550,13 @@
         <v>40963</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -5532,13 +5565,13 @@
         <v>71164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5639,13 @@
         <v>845487</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H10" s="7">
         <v>780</v>
@@ -5621,13 +5654,13 @@
         <v>811880</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="M10" s="7">
         <v>1584</v>
@@ -5636,13 +5669,13 @@
         <v>1657367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5690,13 @@
         <v>587398</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>414</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>416</v>
       </c>
       <c r="H11" s="7">
         <v>586</v>
@@ -5672,13 +5705,13 @@
         <v>610173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="M11" s="7">
         <v>1138</v>
@@ -5687,13 +5720,13 @@
         <v>1197571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5741,13 @@
         <v>464656</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H12" s="7">
         <v>374</v>
@@ -5723,13 +5756,13 @@
         <v>393391</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="M12" s="7">
         <v>805</v>
@@ -5738,13 +5771,13 @@
         <v>858047</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5792,13 @@
         <v>133494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>432</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -5774,13 +5807,13 @@
         <v>139783</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -5789,13 +5822,13 @@
         <v>273277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5843,13 @@
         <v>36572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>431</v>
+        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5825,13 +5858,13 @@
         <v>28582</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>443</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -5840,13 +5873,13 @@
         <v>65154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5947,13 @@
         <v>269736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>269</v>
@@ -5929,13 +5962,13 @@
         <v>276793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>518</v>
@@ -5944,13 +5977,13 @@
         <v>546529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>444</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5998,13 @@
         <v>172200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>447</v>
+        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -5980,13 +6013,13 @@
         <v>146212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>295</v>
@@ -5995,13 +6028,13 @@
         <v>318412</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +6049,13 @@
         <v>72964</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>465</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>333</v>
+        <v>466</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -6031,13 +6064,13 @@
         <v>79419</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="M18" s="7">
         <v>142</v>
@@ -6046,13 +6079,13 @@
         <v>152383</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6100,13 @@
         <v>23345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -6082,13 +6115,13 @@
         <v>31239</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -6097,13 +6130,13 @@
         <v>54585</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6151,13 @@
         <v>7775</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>147</v>
+        <v>483</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -6133,13 +6166,13 @@
         <v>13167</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>471</v>
+        <v>308</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>234</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -6148,13 +6181,13 @@
         <v>20942</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>446</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6255,13 @@
         <v>1401330</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>474</v>
+        <v>241</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="H22" s="7">
         <v>1357</v>
@@ -6237,13 +6270,13 @@
         <v>1427792</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>492</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>2699</v>
@@ -6252,13 +6285,13 @@
         <v>2829122</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6306,13 @@
         <v>965674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>963</v>
@@ -6288,13 +6321,13 @@
         <v>1026200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="M23" s="7">
         <v>1877</v>
@@ -6303,13 +6336,13 @@
         <v>1991874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6357,13 @@
         <v>718109</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>490</v>
+        <v>212</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="H24" s="7">
         <v>670</v>
@@ -6339,13 +6372,13 @@
         <v>717579</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="M24" s="7">
         <v>1353</v>
@@ -6354,13 +6387,13 @@
         <v>1435688</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6408,13 @@
         <v>207449</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="H25" s="7">
         <v>254</v>
@@ -6390,13 +6423,13 @@
         <v>269744</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>381</v>
+        <v>517</v>
       </c>
       <c r="M25" s="7">
         <v>450</v>
@@ -6405,13 +6438,13 @@
         <v>477194</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>506</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6459,13 @@
         <v>74549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>508</v>
+        <v>104</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -6441,13 +6474,13 @@
         <v>82712</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>509</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>511</v>
+        <v>400</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -6456,13 +6489,13 @@
         <v>157261</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>523</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,7 +6551,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6537,7 +6570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B4C63-18E1-41EC-B570-621599C00767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB46874-9ACA-455B-BF67-0CC95771FB7D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6554,7 +6587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6661,13 +6694,13 @@
         <v>221843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="H4" s="7">
         <v>544</v>
@@ -6676,13 +6709,13 @@
         <v>318726</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>517</v>
+        <v>406</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>519</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>825</v>
@@ -6691,13 +6724,13 @@
         <v>540569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6745,13 @@
         <v>156892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
@@ -6727,13 +6760,13 @@
         <v>236892</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>537</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="M5" s="7">
         <v>601</v>
@@ -6742,13 +6775,13 @@
         <v>393784</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>448</v>
+        <v>540</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>529</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6796,13 @@
         <v>101333</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="H6" s="7">
         <v>286</v>
@@ -6778,13 +6811,13 @@
         <v>164810</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="M6" s="7">
         <v>421</v>
@@ -6793,13 +6826,13 @@
         <v>266143</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>547</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6847,13 @@
         <v>35823</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -6829,13 +6862,13 @@
         <v>79143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="M7" s="7">
         <v>173</v>
@@ -6844,13 +6877,13 @@
         <v>114966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6898,13 @@
         <v>21628</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>549</v>
+        <v>91</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -6880,13 +6913,13 @@
         <v>27643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>432</v>
+        <v>562</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -6895,13 +6928,13 @@
         <v>49270</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>554</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +7002,13 @@
         <v>1133030</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="H10" s="7">
         <v>1347</v>
@@ -6984,13 +7017,13 @@
         <v>1053995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="M10" s="7">
         <v>2284</v>
@@ -6999,13 +7032,13 @@
         <v>2187025</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,16 +7050,16 @@
         <v>689</v>
       </c>
       <c r="D11" s="7">
-        <v>675487</v>
+        <v>675486</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="H11" s="7">
         <v>1030</v>
@@ -7035,13 +7068,13 @@
         <v>812497</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="M11" s="7">
         <v>1719</v>
@@ -7050,13 +7083,13 @@
         <v>1487983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>581</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7104,13 @@
         <v>219915</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -7086,13 +7119,13 @@
         <v>235815</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>574</v>
+        <v>465</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>459</v>
+        <v>587</v>
       </c>
       <c r="M12" s="7">
         <v>564</v>
@@ -7104,10 +7137,10 @@
         <v>47</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7155,13 @@
         <v>89267</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>579</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>141</v>
@@ -7137,13 +7170,13 @@
         <v>105225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
@@ -7152,13 +7185,13 @@
         <v>194492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7206,13 @@
         <v>39902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>472</v>
+        <v>599</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -7188,13 +7221,13 @@
         <v>36187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>588</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -7203,13 +7236,13 @@
         <v>76089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>590</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>602</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,7 +7254,7 @@
         <v>1988</v>
       </c>
       <c r="D15" s="7">
-        <v>2157600</v>
+        <v>2157599</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7251,7 +7284,7 @@
         <v>4900</v>
       </c>
       <c r="N15" s="7">
-        <v>4401319</v>
+        <v>4401318</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7277,13 +7310,13 @@
         <v>385143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="H16" s="7">
         <v>571</v>
@@ -7292,13 +7325,13 @@
         <v>422198</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="M16" s="7">
         <v>943</v>
@@ -7307,13 +7340,13 @@
         <v>807341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7361,13 @@
         <v>192408</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>601</v>
+        <v>29</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>602</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="H17" s="7">
         <v>291</v>
@@ -7343,13 +7376,13 @@
         <v>191632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="M17" s="7">
         <v>504</v>
@@ -7358,13 +7391,13 @@
         <v>384040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>608</v>
+        <v>534</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7412,13 @@
         <v>57929</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H18" s="7">
         <v>83</v>
@@ -7394,13 +7427,13 @@
         <v>62447</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>613</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>622</v>
       </c>
       <c r="M18" s="7">
         <v>143</v>
@@ -7409,13 +7442,13 @@
         <v>120375</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7463,13 @@
         <v>19324</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>580</v>
+        <v>628</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -7445,13 +7478,13 @@
         <v>27464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -7460,13 +7493,13 @@
         <v>46788</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>622</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>624</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7514,13 @@
         <v>15199</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>634</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>635</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -7496,13 +7529,13 @@
         <v>8686</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -7511,13 +7544,13 @@
         <v>23885</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>590</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>628</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7618,13 @@
         <v>1740016</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="H22" s="7">
         <v>2462</v>
@@ -7600,13 +7633,13 @@
         <v>1794919</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="M22" s="7">
         <v>4052</v>
@@ -7615,13 +7648,13 @@
         <v>3534935</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7669,13 @@
         <v>1024787</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>294</v>
+        <v>650</v>
       </c>
       <c r="H23" s="7">
         <v>1726</v>
@@ -7651,13 +7684,13 @@
         <v>1241020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="M23" s="7">
         <v>2824</v>
@@ -7666,13 +7699,13 @@
         <v>2265807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7720,13 @@
         <v>379177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="H24" s="7">
         <v>703</v>
@@ -7702,13 +7735,13 @@
         <v>463072</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>652</v>
+        <v>464</v>
       </c>
       <c r="M24" s="7">
         <v>1128</v>
@@ -7717,13 +7750,13 @@
         <v>842248</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7771,13 @@
         <v>144414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="H25" s="7">
         <v>311</v>
@@ -7753,13 +7786,13 @@
         <v>211832</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="M25" s="7">
         <v>466</v>
@@ -7768,13 +7801,13 @@
         <v>356246</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>661</v>
+        <v>311</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>263</v>
+        <v>671</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7822,13 @@
         <v>76728</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>523</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>232</v>
+        <v>674</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -7804,13 +7837,13 @@
         <v>72515</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>663</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="M26" s="7">
         <v>207</v>
@@ -7819,13 +7852,13 @@
         <v>149244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>665</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,7 +7914,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5703-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5703-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B666EC6-D5D8-4E62-9DC3-5A3C155E30D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A9A6C50-11B5-4E1B-B3B7-6402268FA8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9779B4AE-1D2D-4F16-9166-28A45864974A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AFC16F4-0EB7-465C-9BDD-C8390BB511D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="683">
   <si>
     <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>38,92%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
   </si>
   <si>
     <t>38,31%</t>
   </si>
   <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
   </si>
   <si>
     <t>38,58%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,1969 +107,1987 @@
     <t>28,79%</t>
   </si>
   <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>26,92%</t>
   </si>
   <si>
-    <t>25,25%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2016 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2023 (Tasa respuesta: 99,49%)</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2012 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2015 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2023 (Tasa respuesta: 99,49%)</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0522C5A-1323-4E24-8033-C20E3558B434}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3879A0E5-0B61-421C-8287-2CC5CE334CD9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2928,13 +2946,13 @@
         <v>751049</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>1547</v>
@@ -2943,13 +2961,13 @@
         <v>1593255</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,13 +2979,13 @@
         <v>474</v>
       </c>
       <c r="D11" s="7">
-        <v>477833</v>
+        <v>477834</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>72</v>
@@ -2979,13 +2997,13 @@
         <v>414172</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>886</v>
@@ -2994,13 +3012,13 @@
         <v>892006</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3033,13 @@
         <v>273373</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>267</v>
@@ -3030,13 +3048,13 @@
         <v>279394</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>539</v>
@@ -3045,13 +3063,13 @@
         <v>552766</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3084,13 @@
         <v>82653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -3081,13 +3099,13 @@
         <v>118694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
@@ -3096,13 +3114,13 @@
         <v>201347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3135,13 @@
         <v>16510</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -3132,13 +3150,13 @@
         <v>24364</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -3147,13 +3165,13 @@
         <v>40875</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,7 +3183,7 @@
         <v>1648</v>
       </c>
       <c r="D15" s="7">
-        <v>1692575</v>
+        <v>1692576</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3209,7 +3227,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3221,13 +3239,13 @@
         <v>281157</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>253</v>
@@ -3236,13 +3254,13 @@
         <v>265089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>521</v>
@@ -3251,13 +3269,13 @@
         <v>546246</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3290,13 @@
         <v>147889</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -3287,13 +3305,13 @@
         <v>130008</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>266</v>
@@ -3302,13 +3320,13 @@
         <v>277896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3341,13 @@
         <v>88519</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -3338,13 +3356,13 @@
         <v>52208</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -3353,13 +3371,13 @@
         <v>140726</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3392,13 @@
         <v>23011</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -3389,13 +3407,13 @@
         <v>26055</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -3404,13 +3422,13 @@
         <v>49066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3443,13 @@
         <v>9082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3440,13 +3458,13 @@
         <v>3052</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3455,13 +3473,13 @@
         <v>12134</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3547,13 @@
         <v>1524927</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>1494</v>
@@ -3544,13 +3562,13 @@
         <v>1519980</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>2975</v>
@@ -3559,13 +3577,13 @@
         <v>3044906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3598,13 @@
         <v>922789</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>863</v>
@@ -3595,13 +3613,13 @@
         <v>878940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>1778</v>
@@ -3610,13 +3628,13 @@
         <v>1801729</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3649,13 @@
         <v>586249</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>605</v>
@@ -3646,13 +3664,13 @@
         <v>626614</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>1193</v>
@@ -3661,13 +3679,13 @@
         <v>1212863</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3700,13 @@
         <v>203741</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>275</v>
@@ -3697,13 +3715,13 @@
         <v>289581</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>471</v>
@@ -3712,13 +3730,13 @@
         <v>493323</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3751,13 @@
         <v>36249</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -3748,13 +3766,13 @@
         <v>64083</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -3763,13 +3781,13 @@
         <v>100331</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3843,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429E595B-F479-433B-AEF6-4DF7EC0F620A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA076AE-B63D-4B57-9EC8-1AF5953DF63A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3968,13 +3986,13 @@
         <v>401345</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>480</v>
@@ -3983,13 +4001,13 @@
         <v>513479</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>861</v>
@@ -3998,13 +4016,13 @@
         <v>914824</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4037,13 @@
         <v>265437</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -4034,13 +4052,13 @@
         <v>417938</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>632</v>
@@ -4049,13 +4067,13 @@
         <v>683375</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4088,13 @@
         <v>233901</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>251</v>
@@ -4085,13 +4103,13 @@
         <v>268652</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>466</v>
@@ -4100,13 +4118,13 @@
         <v>502552</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4139,13 @@
         <v>55997</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>83</v>
@@ -4136,13 +4154,13 @@
         <v>90674</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -4151,13 +4169,13 @@
         <v>146671</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4190,13 @@
         <v>12977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -4187,13 +4205,13 @@
         <v>39032</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -4202,13 +4220,13 @@
         <v>52009</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4294,13 @@
         <v>957535</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>725</v>
@@ -4291,13 +4309,13 @@
         <v>769652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>1635</v>
@@ -4306,13 +4324,13 @@
         <v>1727187</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4345,13 @@
         <v>581679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H11" s="7">
         <v>502</v>
@@ -4342,13 +4360,13 @@
         <v>536610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M11" s="7">
         <v>1049</v>
@@ -4357,13 +4375,13 @@
         <v>1118289</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4396,13 @@
         <v>309932</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>294</v>
@@ -4393,13 +4411,13 @@
         <v>324539</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>586</v>
@@ -4408,13 +4426,13 @@
         <v>634471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4447,13 @@
         <v>87707</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4444,13 +4462,13 @@
         <v>77294</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>152</v>
@@ -4459,13 +4477,13 @@
         <v>165002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4498,13 @@
         <v>22947</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4495,13 +4513,13 @@
         <v>46877</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -4510,13 +4528,13 @@
         <v>69824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,7 +4590,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4584,13 +4602,13 @@
         <v>253295</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
@@ -4599,13 +4617,13 @@
         <v>243857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>450</v>
@@ -4614,13 +4632,13 @@
         <v>497153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4653,13 @@
         <v>130114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>126</v>
@@ -4650,13 +4668,13 @@
         <v>143289</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>250</v>
@@ -4665,13 +4683,13 @@
         <v>273403</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4704,13 @@
         <v>68993</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -4701,13 +4719,13 @@
         <v>48508</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>103</v>
@@ -4716,13 +4734,13 @@
         <v>117501</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4755,13 @@
         <v>14362</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4752,13 +4770,13 @@
         <v>18058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -4767,13 +4785,13 @@
         <v>32420</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4806,13 @@
         <v>11131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4803,13 +4821,13 @@
         <v>3866</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -4818,13 +4836,13 @@
         <v>14997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4910,13 @@
         <v>1612176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>1424</v>
@@ -4907,13 +4925,13 @@
         <v>1526988</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>2946</v>
@@ -4922,10 +4940,10 @@
         <v>3139164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>328</v>
@@ -4946,10 +4964,10 @@
         <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>1017</v>
@@ -4958,13 +4976,13 @@
         <v>1097837</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>1931</v>
@@ -4973,13 +4991,13 @@
         <v>2075067</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +5012,13 @@
         <v>612826</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H24" s="7">
         <v>590</v>
@@ -5009,13 +5027,13 @@
         <v>641699</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>1155</v>
@@ -5024,13 +5042,13 @@
         <v>1254525</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5063,13 @@
         <v>158067</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>233</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
         <v>170</v>
@@ -5060,13 +5078,13 @@
         <v>186026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
         <v>317</v>
@@ -5075,13 +5093,13 @@
         <v>344093</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>268</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5114,13 @@
         <v>47055</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -5111,13 +5129,13 @@
         <v>89775</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
         <v>126</v>
@@ -5126,13 +5144,13 @@
         <v>136829</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,7 +5206,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5207,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B130128D-A92B-4C69-88B7-7382635F8B72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F474AE-8820-42F7-8614-E67E6EC7B231}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5224,7 +5242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5331,13 +5349,13 @@
         <v>286107</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>308</v>
@@ -5346,13 +5364,13 @@
         <v>339120</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>597</v>
@@ -5361,13 +5379,13 @@
         <v>625227</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5400,13 @@
         <v>206075</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>239</v>
@@ -5397,13 +5415,13 @@
         <v>269815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M5" s="7">
         <v>444</v>
@@ -5412,13 +5430,13 @@
         <v>475890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5451,13 @@
         <v>180489</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>380</v>
+        <v>74</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H6" s="7">
         <v>220</v>
@@ -5448,13 +5466,13 @@
         <v>244769</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M6" s="7">
         <v>406</v>
@@ -5463,13 +5481,13 @@
         <v>425258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5502,13 @@
         <v>50610</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -5499,13 +5517,13 @@
         <v>98722</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>49</v>
+        <v>395</v>
       </c>
       <c r="M7" s="7">
         <v>140</v>
@@ -5514,13 +5532,13 @@
         <v>149332</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5553,13 @@
         <v>30202</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>35</v>
@@ -5550,13 +5568,13 @@
         <v>40963</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -5565,13 +5583,13 @@
         <v>71164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5657,13 @@
         <v>845487</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>406</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H10" s="7">
         <v>780</v>
@@ -5654,13 +5672,13 @@
         <v>811880</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>1584</v>
@@ -5669,13 +5687,13 @@
         <v>1657367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5708,13 @@
         <v>587398</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H11" s="7">
         <v>586</v>
@@ -5705,13 +5723,13 @@
         <v>610173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M11" s="7">
         <v>1138</v>
@@ -5720,13 +5738,13 @@
         <v>1197571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5759,13 @@
         <v>464656</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H12" s="7">
         <v>374</v>
@@ -5756,10 +5774,10 @@
         <v>393391</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>426</v>
+        <v>341</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>427</v>
@@ -5822,13 +5840,13 @@
         <v>273277</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,10 +5861,10 @@
         <v>36572</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>441</v>
@@ -5858,13 +5876,13 @@
         <v>28582</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -5873,13 +5891,13 @@
         <v>65154</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,7 +5953,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5947,13 +5965,13 @@
         <v>269736</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>269</v>
@@ -5962,13 +5980,13 @@
         <v>276793</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>518</v>
@@ -5977,13 +5995,13 @@
         <v>546529</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,13 +6016,13 @@
         <v>172200</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -6166,7 +6184,7 @@
         <v>13167</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>485</v>
@@ -6181,13 +6199,13 @@
         <v>20942</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,7 +6273,7 @@
         <v>1401330</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>488</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>489</v>
@@ -6309,10 +6327,10 @@
         <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>963</v>
@@ -6321,13 +6339,13 @@
         <v>1026200</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M23" s="7">
         <v>1877</v>
@@ -6336,10 +6354,10 @@
         <v>1991874</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>503</v>
@@ -6357,13 +6375,13 @@
         <v>718109</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>212</v>
+        <v>504</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H24" s="7">
         <v>670</v>
@@ -6372,13 +6390,13 @@
         <v>717579</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>508</v>
+        <v>219</v>
       </c>
       <c r="M24" s="7">
         <v>1353</v>
@@ -6444,7 +6462,7 @@
         <v>519</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6477,13 @@
         <v>74549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>522</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -6474,13 +6492,13 @@
         <v>82712</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>524</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -6489,13 +6507,13 @@
         <v>157261</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>524</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,7 +6569,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6570,7 +6588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB46874-9ACA-455B-BF67-0CC95771FB7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BE77C3-EF65-45AB-A948-DE78C8D8F83B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6587,7 +6605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6694,13 +6712,13 @@
         <v>221843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H4" s="7">
         <v>544</v>
@@ -6709,13 +6727,13 @@
         <v>318726</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>406</v>
+        <v>533</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>825</v>
@@ -6724,10 +6742,10 @@
         <v>540569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>493</v>
@@ -6745,13 +6763,13 @@
         <v>156892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
@@ -6760,13 +6778,13 @@
         <v>236892</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M5" s="7">
         <v>601</v>
@@ -6775,13 +6793,13 @@
         <v>393784</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6814,13 @@
         <v>101333</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H6" s="7">
         <v>286</v>
@@ -6811,13 +6829,13 @@
         <v>164810</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="M6" s="7">
         <v>421</v>
@@ -6826,13 +6844,13 @@
         <v>266143</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6865,13 @@
         <v>35823</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -6862,13 +6880,13 @@
         <v>79143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M7" s="7">
         <v>173</v>
@@ -6877,13 +6895,13 @@
         <v>114966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,13 +6916,13 @@
         <v>21628</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>565</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -6913,13 +6931,13 @@
         <v>27643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -6928,13 +6946,13 @@
         <v>49270</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>314</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,13 +7020,13 @@
         <v>1133030</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="H10" s="7">
         <v>1347</v>
@@ -7017,13 +7035,13 @@
         <v>1053995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="M10" s="7">
         <v>2284</v>
@@ -7032,13 +7050,13 @@
         <v>2187025</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7071,13 @@
         <v>675486</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="H11" s="7">
         <v>1030</v>
@@ -7068,13 +7086,13 @@
         <v>812497</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="M11" s="7">
         <v>1719</v>
@@ -7083,13 +7101,13 @@
         <v>1487983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7122,13 @@
         <v>219915</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -7119,13 +7137,13 @@
         <v>235815</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>465</v>
+        <v>307</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="M12" s="7">
         <v>564</v>
@@ -7137,10 +7155,10 @@
         <v>47</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7173,13 @@
         <v>89267</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>598</v>
       </c>
       <c r="H13" s="7">
         <v>141</v>
@@ -7170,13 +7188,13 @@
         <v>105225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
@@ -7185,13 +7203,13 @@
         <v>194492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>596</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7224,13 @@
         <v>39902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -7221,13 +7239,13 @@
         <v>36187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -7236,13 +7254,13 @@
         <v>76089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>608</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,7 +7316,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7310,13 +7328,13 @@
         <v>385143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="H16" s="7">
         <v>571</v>
@@ -7325,13 +7343,13 @@
         <v>422198</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="M16" s="7">
         <v>943</v>
@@ -7340,13 +7358,13 @@
         <v>807341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7379,13 @@
         <v>192408</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>29</v>
+        <v>619</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>378</v>
+        <v>620</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="H17" s="7">
         <v>291</v>
@@ -7376,13 +7394,13 @@
         <v>191632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="M17" s="7">
         <v>504</v>
@@ -7391,13 +7409,13 @@
         <v>384040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,13 +7430,13 @@
         <v>57929</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="H18" s="7">
         <v>83</v>
@@ -7427,13 +7445,13 @@
         <v>62447</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>630</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="M18" s="7">
         <v>143</v>
@@ -7442,13 +7460,13 @@
         <v>120375</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>623</v>
+        <v>392</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7463,13 +7481,13 @@
         <v>19324</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>626</v>
+        <v>484</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>627</v>
+        <v>277</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -7478,13 +7496,13 @@
         <v>27464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -7493,13 +7511,13 @@
         <v>46788</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>267</v>
+        <v>639</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7514,13 +7532,13 @@
         <v>15199</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>634</v>
+        <v>444</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -7529,13 +7547,13 @@
         <v>8686</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>189</v>
+        <v>643</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>637</v>
+        <v>442</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -7544,13 +7562,13 @@
         <v>23885</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>608</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,13 +7636,13 @@
         <v>1740016</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="H22" s="7">
         <v>2462</v>
@@ -7633,13 +7651,13 @@
         <v>1794919</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="M22" s="7">
         <v>4052</v>
@@ -7648,13 +7666,13 @@
         <v>3534935</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,13 +7687,13 @@
         <v>1024787</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="H23" s="7">
         <v>1726</v>
@@ -7684,13 +7702,13 @@
         <v>1241020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>652</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="M23" s="7">
         <v>2824</v>
@@ -7699,13 +7717,13 @@
         <v>2265807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7738,13 @@
         <v>379177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="H24" s="7">
         <v>703</v>
@@ -7735,10 +7753,10 @@
         <v>463072</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>464</v>
@@ -7750,13 +7768,13 @@
         <v>842248</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,13 +7789,13 @@
         <v>144414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="H25" s="7">
         <v>311</v>
@@ -7786,13 +7804,13 @@
         <v>211832</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="M25" s="7">
         <v>466</v>
@@ -7801,13 +7819,13 @@
         <v>356246</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>311</v>
+        <v>677</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>672</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,13 +7840,13 @@
         <v>76728</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -7837,13 +7855,13 @@
         <v>72515</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>487</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>230</v>
+        <v>681</v>
       </c>
       <c r="M26" s="7">
         <v>207</v>
@@ -7852,13 +7870,13 @@
         <v>149244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>675</v>
+        <v>235</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>676</v>
+        <v>522</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>682</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7914,7 +7932,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5703-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5703-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A9A6C50-11B5-4E1B-B3B7-6402268FA8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F642BD5F-3EEF-4686-A44A-FDF897B8853E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AFC16F4-0EB7-465C-9BDD-C8390BB511D8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB29319B-3D7E-4FCC-9830-B9BA31ED0758}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="666">
   <si>
     <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>38,92%</t>
   </si>
   <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
   <si>
     <t>38,31%</t>
   </si>
   <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>38,58%</t>
   </si>
   <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,28 +107,28 @@
     <t>28,79%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
   </si>
   <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>26,92%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,1957 +137,1906 @@
     <t>21,75%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2016 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
     <t>20,59%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2023 (Tasa respuesta: 99,49%)</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2012 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2016 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2023 (Tasa respuesta: 99,49%)</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>2,46%</t>
   </si>
 </sst>
 </file>
@@ -2499,7 +2448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3879A0E5-0B61-421C-8287-2CC5CE334CD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F6825C-9345-4777-8D84-DC563EB37CB0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2979,16 +2928,16 @@
         <v>474</v>
       </c>
       <c r="D11" s="7">
-        <v>477834</v>
+        <v>477833</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>412</v>
@@ -2997,7 +2946,7 @@
         <v>414172</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>74</v>
@@ -3054,7 +3003,7 @@
         <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7">
         <v>539</v>
@@ -3063,13 +3012,13 @@
         <v>552766</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3033,13 @@
         <v>82653</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -3099,13 +3048,13 @@
         <v>118694</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
@@ -3114,13 +3063,13 @@
         <v>201347</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3084,13 @@
         <v>16510</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -3150,13 +3099,13 @@
         <v>24364</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -3165,13 +3114,13 @@
         <v>40875</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,7 +3132,7 @@
         <v>1648</v>
       </c>
       <c r="D15" s="7">
-        <v>1692576</v>
+        <v>1692575</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3227,7 +3176,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3239,13 +3188,13 @@
         <v>281157</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>253</v>
@@ -3254,13 +3203,13 @@
         <v>265089</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>521</v>
@@ -3269,13 +3218,13 @@
         <v>546246</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3239,13 @@
         <v>147889</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -3305,13 +3254,13 @@
         <v>130008</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>266</v>
@@ -3320,13 +3269,13 @@
         <v>277896</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3290,13 @@
         <v>88519</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -3356,13 +3305,13 @@
         <v>52208</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -3371,13 +3320,13 @@
         <v>140726</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3341,13 @@
         <v>23011</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -3407,13 +3356,13 @@
         <v>26055</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -3422,13 +3371,13 @@
         <v>49066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3392,13 @@
         <v>9082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3458,13 +3407,13 @@
         <v>3052</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3473,13 +3422,13 @@
         <v>12134</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3496,13 @@
         <v>1524927</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>1494</v>
@@ -3562,13 +3511,13 @@
         <v>1519980</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>2975</v>
@@ -3577,13 +3526,13 @@
         <v>3044906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3547,13 @@
         <v>922789</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>863</v>
@@ -3613,13 +3562,13 @@
         <v>878940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>1778</v>
@@ -3628,13 +3577,13 @@
         <v>1801729</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3598,13 @@
         <v>586249</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>605</v>
@@ -3664,13 +3613,13 @@
         <v>626614</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>1193</v>
@@ -3679,13 +3628,13 @@
         <v>1212863</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3649,13 @@
         <v>203741</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>275</v>
@@ -3715,13 +3664,13 @@
         <v>289581</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>471</v>
@@ -3730,13 +3679,13 @@
         <v>493323</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3700,13 @@
         <v>36249</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -3766,13 +3715,13 @@
         <v>64083</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -3781,13 +3730,13 @@
         <v>100331</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3792,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA076AE-B63D-4B57-9EC8-1AF5953DF63A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01750EE3-4AFE-45A3-BB98-C9F01CB4194C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3879,7 +3828,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3986,13 +3935,13 @@
         <v>401345</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>480</v>
@@ -4001,13 +3950,13 @@
         <v>513479</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>861</v>
@@ -4016,13 +3965,13 @@
         <v>914824</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +3986,13 @@
         <v>265437</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -4052,13 +4001,13 @@
         <v>417938</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>632</v>
@@ -4067,13 +4016,13 @@
         <v>683375</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4037,13 @@
         <v>233901</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="H6" s="7">
         <v>251</v>
@@ -4103,13 +4052,13 @@
         <v>268652</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>466</v>
@@ -4118,13 +4067,13 @@
         <v>502552</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4088,13 @@
         <v>55997</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>83</v>
@@ -4154,13 +4103,13 @@
         <v>90674</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -4169,13 +4118,13 @@
         <v>146671</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4139,13 @@
         <v>12977</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>38</v>
@@ -4205,13 +4154,13 @@
         <v>39032</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -4220,13 +4169,13 @@
         <v>52009</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4243,13 @@
         <v>957535</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>725</v>
@@ -4309,13 +4258,13 @@
         <v>769652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>1635</v>
@@ -4324,13 +4273,13 @@
         <v>1727187</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4294,13 @@
         <v>581679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>502</v>
@@ -4360,13 +4309,13 @@
         <v>536610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>1049</v>
@@ -4375,13 +4324,13 @@
         <v>1118289</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4345,13 @@
         <v>309932</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>294</v>
@@ -4411,13 +4360,13 @@
         <v>324539</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>586</v>
@@ -4426,13 +4375,13 @@
         <v>634471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4396,13 @@
         <v>87707</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>136</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4462,13 +4411,13 @@
         <v>77294</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>152</v>
@@ -4477,13 +4426,13 @@
         <v>165002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4447,13 @@
         <v>22947</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4513,13 +4462,13 @@
         <v>46877</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -4528,13 +4477,13 @@
         <v>69824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,7 +4539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4602,13 +4551,13 @@
         <v>253295</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
@@ -4617,13 +4566,13 @@
         <v>243857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>450</v>
@@ -4632,13 +4581,13 @@
         <v>497153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4602,13 @@
         <v>130114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>126</v>
@@ -4668,13 +4617,13 @@
         <v>143289</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>250</v>
@@ -4683,13 +4632,13 @@
         <v>273403</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4653,13 @@
         <v>68993</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -4719,13 +4668,13 @@
         <v>48508</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>103</v>
@@ -4734,13 +4683,13 @@
         <v>117501</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4704,13 @@
         <v>14362</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4770,13 +4719,13 @@
         <v>18058</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -4785,13 +4734,13 @@
         <v>32420</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4755,13 @@
         <v>11131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4821,13 +4770,13 @@
         <v>3866</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -4836,13 +4785,13 @@
         <v>14997</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4859,13 @@
         <v>1612176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>1424</v>
@@ -4925,13 +4874,13 @@
         <v>1526988</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>243</v>
       </c>
       <c r="M22" s="7">
         <v>2946</v>
@@ -4940,13 +4889,13 @@
         <v>3139164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4910,13 @@
         <v>977230</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
         <v>1017</v>
@@ -4976,28 +4925,28 @@
         <v>1097837</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M23" s="7">
         <v>1931</v>
       </c>
       <c r="N23" s="7">
-        <v>2075067</v>
+        <v>2075068</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +4961,13 @@
         <v>612826</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>340</v>
+        <v>174</v>
       </c>
       <c r="H24" s="7">
         <v>590</v>
@@ -5027,13 +4976,13 @@
         <v>641699</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>342</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>1155</v>
@@ -5042,13 +4991,13 @@
         <v>1254525</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5012,13 @@
         <v>158067</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>170</v>
@@ -5078,13 +5027,13 @@
         <v>186026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>317</v>
@@ -5093,13 +5042,13 @@
         <v>344093</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5063,13 @@
         <v>47055</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -5129,13 +5078,13 @@
         <v>89775</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>126</v>
@@ -5144,13 +5093,13 @@
         <v>136829</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,7 +5141,7 @@
         <v>6475</v>
       </c>
       <c r="N27" s="7">
-        <v>6949678</v>
+        <v>6949679</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5206,7 +5155,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5225,7 +5174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F474AE-8820-42F7-8614-E67E6EC7B231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC80CECD-BE13-4702-BD83-25BA800F0D19}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5242,7 +5191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5349,13 +5298,13 @@
         <v>286107</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>356</v>
       </c>
       <c r="H4" s="7">
         <v>308</v>
@@ -5364,13 +5313,13 @@
         <v>339120</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
         <v>597</v>
@@ -5379,13 +5328,13 @@
         <v>625227</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5349,13 @@
         <v>206075</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H5" s="7">
         <v>239</v>
@@ -5415,13 +5364,13 @@
         <v>269815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>444</v>
@@ -5430,13 +5379,13 @@
         <v>475890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5400,13 @@
         <v>180489</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>383</v>
+        <v>115</v>
       </c>
       <c r="H6" s="7">
         <v>220</v>
@@ -5466,13 +5415,13 @@
         <v>244769</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>386</v>
+        <v>163</v>
       </c>
       <c r="M6" s="7">
         <v>406</v>
@@ -5481,13 +5430,13 @@
         <v>425258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5451,13 @@
         <v>50610</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -5517,13 +5466,13 @@
         <v>98722</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="M7" s="7">
         <v>140</v>
@@ -5532,13 +5481,13 @@
         <v>149332</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5502,13 @@
         <v>30202</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="H8" s="7">
         <v>35</v>
@@ -5568,13 +5517,13 @@
         <v>40963</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -5583,13 +5532,13 @@
         <v>71164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5606,13 @@
         <v>845487</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>398</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H10" s="7">
         <v>780</v>
@@ -5672,13 +5621,13 @@
         <v>811880</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="M10" s="7">
         <v>1584</v>
@@ -5687,13 +5636,13 @@
         <v>1657367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5657,13 @@
         <v>587398</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>416</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>417</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>586</v>
@@ -5723,13 +5672,13 @@
         <v>610173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="M11" s="7">
         <v>1138</v>
@@ -5738,13 +5687,13 @@
         <v>1197571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5708,13 @@
         <v>464656</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H12" s="7">
         <v>374</v>
@@ -5774,13 +5723,13 @@
         <v>393391</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>341</v>
+        <v>417</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M12" s="7">
         <v>805</v>
@@ -5789,13 +5738,13 @@
         <v>858047</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5759,13 @@
         <v>133494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>432</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -5825,13 +5774,13 @@
         <v>139783</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -5840,13 +5789,13 @@
         <v>273277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>427</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5810,13 @@
         <v>36572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5876,13 +5825,13 @@
         <v>28582</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -5891,13 +5840,13 @@
         <v>65154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,7 +5902,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5965,13 +5914,13 @@
         <v>269736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>269</v>
@@ -5980,13 +5929,13 @@
         <v>276793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="M16" s="7">
         <v>518</v>
@@ -5995,13 +5944,13 @@
         <v>546529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>454</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +5965,13 @@
         <v>172200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -6031,13 +5980,13 @@
         <v>146212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="M17" s="7">
         <v>295</v>
@@ -6046,13 +5995,13 @@
         <v>318412</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6016,13 @@
         <v>72964</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>465</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>466</v>
+        <v>333</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -6082,13 +6031,13 @@
         <v>79419</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="M18" s="7">
         <v>142</v>
@@ -6097,13 +6046,13 @@
         <v>152383</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6067,13 @@
         <v>23345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -6133,13 +6082,13 @@
         <v>31239</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>390</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -6148,13 +6097,13 @@
         <v>54585</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6118,13 @@
         <v>7775</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>147</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -6184,13 +6133,13 @@
         <v>13167</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>471</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -6199,13 +6148,13 @@
         <v>20942</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6222,13 @@
         <v>1401330</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="H22" s="7">
         <v>1357</v>
@@ -6288,13 +6237,13 @@
         <v>1427792</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="M22" s="7">
         <v>2699</v>
@@ -6303,13 +6252,13 @@
         <v>2829122</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6273,13 @@
         <v>965674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>376</v>
+        <v>482</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="H23" s="7">
         <v>963</v>
@@ -6339,13 +6288,13 @@
         <v>1026200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>1877</v>
@@ -6354,13 +6303,13 @@
         <v>1991874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6324,13 @@
         <v>718109</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="H24" s="7">
         <v>670</v>
@@ -6390,13 +6339,13 @@
         <v>717579</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>219</v>
+        <v>495</v>
       </c>
       <c r="M24" s="7">
         <v>1353</v>
@@ -6405,13 +6354,13 @@
         <v>1435688</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6375,13 @@
         <v>207449</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="H25" s="7">
         <v>254</v>
@@ -6441,13 +6390,13 @@
         <v>269744</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>517</v>
+        <v>381</v>
       </c>
       <c r="M25" s="7">
         <v>450</v>
@@ -6456,13 +6405,13 @@
         <v>477194</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6426,13 @@
         <v>74549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>523</v>
+        <v>470</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -6492,13 +6441,13 @@
         <v>82712</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -6507,13 +6456,13 @@
         <v>157261</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>527</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,7 +6518,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6588,7 +6537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BE77C3-EF65-45AB-A948-DE78C8D8F83B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAE6A85-176F-4879-801F-64EACBBC3AAD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6605,7 +6554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6712,13 +6661,13 @@
         <v>221843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="H4" s="7">
         <v>544</v>
@@ -6727,13 +6676,13 @@
         <v>318726</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>519</v>
       </c>
       <c r="M4" s="7">
         <v>825</v>
@@ -6742,13 +6691,13 @@
         <v>540569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6712,13 @@
         <v>156892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
@@ -6778,13 +6727,13 @@
         <v>236892</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>541</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="M5" s="7">
         <v>601</v>
@@ -6793,13 +6742,13 @@
         <v>393784</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>544</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6763,13 @@
         <v>101333</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="H6" s="7">
         <v>286</v>
@@ -6829,13 +6778,13 @@
         <v>164810</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="M6" s="7">
         <v>421</v>
@@ -6844,13 +6793,13 @@
         <v>266143</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>551</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6814,13 @@
         <v>35823</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -6880,13 +6829,13 @@
         <v>79143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="M7" s="7">
         <v>173</v>
@@ -6895,13 +6844,13 @@
         <v>114966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6865,13 @@
         <v>21628</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -6931,13 +6880,13 @@
         <v>27643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>567</v>
+        <v>432</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -6946,13 +6895,13 @@
         <v>49270</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +6969,13 @@
         <v>1133030</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="H10" s="7">
         <v>1347</v>
@@ -7035,13 +6984,13 @@
         <v>1053995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="M10" s="7">
         <v>2284</v>
@@ -7050,13 +6999,13 @@
         <v>2187025</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,16 +7017,16 @@
         <v>689</v>
       </c>
       <c r="D11" s="7">
-        <v>675486</v>
+        <v>675487</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="H11" s="7">
         <v>1030</v>
@@ -7086,13 +7035,13 @@
         <v>812497</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="M11" s="7">
         <v>1719</v>
@@ -7101,13 +7050,13 @@
         <v>1487983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>587</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7071,13 @@
         <v>219915</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -7137,13 +7086,13 @@
         <v>235815</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>307</v>
+        <v>574</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>593</v>
+        <v>459</v>
       </c>
       <c r="M12" s="7">
         <v>564</v>
@@ -7155,10 +7104,10 @@
         <v>47</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7122,13 @@
         <v>89267</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>597</v>
+        <v>550</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="H13" s="7">
         <v>141</v>
@@ -7188,13 +7137,13 @@
         <v>105225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
@@ -7203,13 +7152,13 @@
         <v>194492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>584</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7173,13 @@
         <v>39902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>605</v>
+        <v>472</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -7239,13 +7188,13 @@
         <v>36187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>588</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -7254,13 +7203,13 @@
         <v>76089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>609</v>
+        <v>345</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,7 +7221,7 @@
         <v>1988</v>
       </c>
       <c r="D15" s="7">
-        <v>2157599</v>
+        <v>2157600</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7302,7 +7251,7 @@
         <v>4900</v>
       </c>
       <c r="N15" s="7">
-        <v>4401318</v>
+        <v>4401319</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7316,7 +7265,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7328,13 +7277,13 @@
         <v>385143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="H16" s="7">
         <v>571</v>
@@ -7343,13 +7292,13 @@
         <v>422198</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="M16" s="7">
         <v>943</v>
@@ -7358,13 +7307,13 @@
         <v>807341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7328,13 @@
         <v>192408</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="H17" s="7">
         <v>291</v>
@@ -7394,13 +7343,13 @@
         <v>191632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="M17" s="7">
         <v>504</v>
@@ -7409,13 +7358,13 @@
         <v>384040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>538</v>
+        <v>608</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7379,13 @@
         <v>57929</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="H18" s="7">
         <v>83</v>
@@ -7445,13 +7394,13 @@
         <v>62447</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>632</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>143</v>
@@ -7460,13 +7409,13 @@
         <v>120375</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>392</v>
+        <v>615</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7430,13 @@
         <v>19324</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>484</v>
+        <v>618</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>277</v>
+        <v>590</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>635</v>
+        <v>580</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -7496,13 +7445,13 @@
         <v>27464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -7511,13 +7460,13 @@
         <v>46788</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7532,13 +7481,13 @@
         <v>15199</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>444</v>
+        <v>271</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>642</v>
+        <v>269</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -7547,13 +7496,13 @@
         <v>8686</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>643</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>442</v>
+        <v>627</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -7562,13 +7511,13 @@
         <v>23885</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>185</v>
+        <v>628</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7585,13 @@
         <v>1740016</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="H22" s="7">
         <v>2462</v>
@@ -7651,13 +7600,13 @@
         <v>1794919</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="M22" s="7">
         <v>4052</v>
@@ -7666,13 +7615,13 @@
         <v>3534935</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7636,13 @@
         <v>1024787</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>657</v>
+        <v>294</v>
       </c>
       <c r="H23" s="7">
         <v>1726</v>
@@ -7702,13 +7651,13 @@
         <v>1241020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>642</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="M23" s="7">
         <v>2824</v>
@@ -7717,13 +7666,13 @@
         <v>2265807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7687,13 @@
         <v>379177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="H24" s="7">
         <v>703</v>
@@ -7753,13 +7702,13 @@
         <v>463072</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>464</v>
+        <v>652</v>
       </c>
       <c r="M24" s="7">
         <v>1128</v>
@@ -7768,13 +7717,13 @@
         <v>842248</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7738,13 @@
         <v>144414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="H25" s="7">
         <v>311</v>
@@ -7804,13 +7753,13 @@
         <v>211832</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="M25" s="7">
         <v>466</v>
@@ -7819,13 +7768,13 @@
         <v>356246</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>678</v>
+        <v>263</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,13 +7789,13 @@
         <v>76728</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>527</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>680</v>
+        <v>232</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
@@ -7855,13 +7804,13 @@
         <v>72515</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>663</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>681</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>207</v>
@@ -7870,13 +7819,13 @@
         <v>149244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>235</v>
+        <v>664</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>522</v>
+        <v>662</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,7 +7881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5703-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5703-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F642BD5F-3EEF-4686-A44A-FDF897B8853E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{269C592A-52A3-499A-A0D2-087A2346D5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB29319B-3D7E-4FCC-9830-B9BA31ED0758}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0BEE8F4D-5F67-49FC-8542-B96791AB2FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="661">
   <si>
     <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -1583,460 +1583,445 @@
     <t>Población según la frecuencia de recibir elogios y reconocimientos cuando hago bien mi trabajo en 2023 (Tasa respuesta: 99,49%)</t>
   </si>
   <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>4,92%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F6825C-9345-4777-8D84-DC563EB37CB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A5D6B3-8E03-4D07-8F60-CC9DC13078D5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2599,7 +2584,7 @@
         <v>907</v>
       </c>
       <c r="N4" s="7">
-        <v>905406</v>
+        <v>905405</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2752,7 +2737,7 @@
         <v>231</v>
       </c>
       <c r="N7" s="7">
-        <v>242910</v>
+        <v>242909</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2854,7 +2839,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -3508,7 +3493,7 @@
         <v>1494</v>
       </c>
       <c r="I22" s="7">
-        <v>1519980</v>
+        <v>1519979</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>152</v>
@@ -3763,7 +3748,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3811,7 +3796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01750EE3-4AFE-45A3-BB98-C9F01CB4194C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B66997-2C57-4892-9949-1960F1F1156D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5174,7 +5159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC80CECD-BE13-4702-BD83-25BA800F0D19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B404230D-EE64-4534-927A-2968F571A4AA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5888,7 +5873,7 @@
         <v>3848</v>
       </c>
       <c r="N15" s="7">
-        <v>4051416</v>
+        <v>4051415</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -6537,7 +6522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAE6A85-176F-4879-801F-64EACBBC3AAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D177C3-FA50-4592-B72F-C9DC3D0855CA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6658,7 +6643,7 @@
         <v>281</v>
       </c>
       <c r="D4" s="7">
-        <v>221843</v>
+        <v>215086</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>514</v>
@@ -6667,37 +6652,37 @@
         <v>515</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>516</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>544</v>
       </c>
       <c r="I4" s="7">
-        <v>318726</v>
+        <v>294642</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="M4" s="7">
         <v>825</v>
       </c>
       <c r="N4" s="7">
-        <v>540569</v>
+        <v>509729</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,46 +6694,46 @@
         <v>196</v>
       </c>
       <c r="D5" s="7">
-        <v>156892</v>
+        <v>147052</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>523</v>
+        <v>78</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
       </c>
       <c r="I5" s="7">
-        <v>236892</v>
+        <v>211693</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>524</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M5" s="7">
         <v>601</v>
       </c>
       <c r="N5" s="7">
-        <v>393784</v>
+        <v>358746</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,40 +6745,40 @@
         <v>135</v>
       </c>
       <c r="D6" s="7">
-        <v>101333</v>
+        <v>95175</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H6" s="7">
         <v>286</v>
       </c>
       <c r="I6" s="7">
-        <v>164810</v>
+        <v>147460</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M6" s="7">
         <v>421</v>
       </c>
       <c r="N6" s="7">
-        <v>266143</v>
+        <v>242635</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>535</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>536</v>
@@ -6811,46 +6796,46 @@
         <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>35823</v>
+        <v>34375</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
       </c>
       <c r="I7" s="7">
-        <v>79143</v>
+        <v>69383</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="M7" s="7">
         <v>173</v>
       </c>
       <c r="N7" s="7">
-        <v>114966</v>
+        <v>103758</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,46 +6847,46 @@
         <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>21628</v>
+        <v>19316</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>548</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>549</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
       </c>
       <c r="I8" s="7">
-        <v>27643</v>
+        <v>24413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>432</v>
+        <v>549</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
       </c>
       <c r="N8" s="7">
-        <v>49270</v>
+        <v>43729</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>552</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,7 +6898,7 @@
         <v>686</v>
       </c>
       <c r="D9" s="7">
-        <v>537519</v>
+        <v>511005</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6928,7 +6913,7 @@
         <v>1411</v>
       </c>
       <c r="I9" s="7">
-        <v>827213</v>
+        <v>747591</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6943,7 +6928,7 @@
         <v>2097</v>
       </c>
       <c r="N9" s="7">
-        <v>1364732</v>
+        <v>1258596</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6966,46 +6951,46 @@
         <v>937</v>
       </c>
       <c r="D10" s="7">
-        <v>1133030</v>
+        <v>1321910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H10" s="7">
         <v>1347</v>
       </c>
       <c r="I10" s="7">
-        <v>1053995</v>
+        <v>1055092</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M10" s="7">
         <v>2284</v>
       </c>
       <c r="N10" s="7">
-        <v>2187025</v>
+        <v>2377002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,46 +7002,46 @@
         <v>689</v>
       </c>
       <c r="D11" s="7">
-        <v>675487</v>
+        <v>635748</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>561</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H11" s="7">
         <v>1030</v>
       </c>
       <c r="I11" s="7">
-        <v>812497</v>
+        <v>833813</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>567</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M11" s="7">
         <v>1719</v>
       </c>
       <c r="N11" s="7">
-        <v>1487983</v>
+        <v>1469561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>567</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,46 +7053,46 @@
         <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>219915</v>
+        <v>209273</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>235815</v>
+        <v>216090</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>575</v>
+        <v>95</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>459</v>
+        <v>572</v>
       </c>
       <c r="M12" s="7">
         <v>564</v>
       </c>
       <c r="N12" s="7">
-        <v>455730</v>
+        <v>425364</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>47</v>
+        <v>573</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>576</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,46 +7104,46 @@
         <v>91</v>
       </c>
       <c r="D13" s="7">
-        <v>89267</v>
+        <v>82159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H13" s="7">
         <v>141</v>
       </c>
       <c r="I13" s="7">
-        <v>105225</v>
+        <v>94629</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>582</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
         <v>232</v>
       </c>
       <c r="N13" s="7">
-        <v>194492</v>
+        <v>176788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,46 +7155,46 @@
         <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>39902</v>
+        <v>36896</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>586</v>
+        <v>434</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>472</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>36187</v>
+        <v>32666</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>434</v>
+        <v>584</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>588</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
       </c>
       <c r="N14" s="7">
-        <v>76089</v>
+        <v>69562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>590</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>586</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>591</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,7 +7206,7 @@
         <v>1988</v>
       </c>
       <c r="D15" s="7">
-        <v>2157600</v>
+        <v>2285985</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7236,7 +7221,7 @@
         <v>2912</v>
       </c>
       <c r="I15" s="7">
-        <v>2243719</v>
+        <v>2232291</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7251,7 +7236,7 @@
         <v>4900</v>
       </c>
       <c r="N15" s="7">
-        <v>4401319</v>
+        <v>4518276</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7274,46 +7259,46 @@
         <v>372</v>
       </c>
       <c r="D16" s="7">
-        <v>385143</v>
+        <v>376167</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H16" s="7">
         <v>571</v>
       </c>
       <c r="I16" s="7">
-        <v>422198</v>
+        <v>392898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M16" s="7">
         <v>943</v>
       </c>
       <c r="N16" s="7">
-        <v>807341</v>
+        <v>769065</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,46 +7310,46 @@
         <v>213</v>
       </c>
       <c r="D17" s="7">
-        <v>192408</v>
+        <v>179159</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H17" s="7">
         <v>291</v>
       </c>
       <c r="I17" s="7">
-        <v>191632</v>
+        <v>176045</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="M17" s="7">
         <v>504</v>
       </c>
       <c r="N17" s="7">
-        <v>384040</v>
+        <v>355204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,46 +7361,46 @@
         <v>60</v>
       </c>
       <c r="D18" s="7">
-        <v>57929</v>
+        <v>55985</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H18" s="7">
         <v>83</v>
       </c>
       <c r="I18" s="7">
-        <v>62447</v>
+        <v>56799</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>610</v>
       </c>
       <c r="M18" s="7">
         <v>143</v>
       </c>
       <c r="N18" s="7">
-        <v>120375</v>
+        <v>112784</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,46 +7412,46 @@
         <v>19</v>
       </c>
       <c r="D19" s="7">
-        <v>19324</v>
+        <v>18426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>590</v>
+        <v>145</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
       </c>
       <c r="I19" s="7">
-        <v>27464</v>
+        <v>25357</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>620</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>621</v>
+        <v>500</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
       </c>
       <c r="N19" s="7">
-        <v>46788</v>
+        <v>43783</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>624</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7478,46 +7463,46 @@
         <v>15</v>
       </c>
       <c r="D20" s="7">
-        <v>15199</v>
+        <v>14320</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>620</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>621</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
       </c>
       <c r="I20" s="7">
-        <v>8686</v>
+        <v>8104</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>627</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
       </c>
       <c r="N20" s="7">
-        <v>23885</v>
+        <v>22425</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>590</v>
+        <v>623</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7529,7 +7514,7 @@
         <v>679</v>
       </c>
       <c r="D21" s="7">
-        <v>670003</v>
+        <v>644057</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7544,7 +7529,7 @@
         <v>1001</v>
       </c>
       <c r="I21" s="7">
-        <v>712426</v>
+        <v>659204</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7559,7 +7544,7 @@
         <v>1680</v>
       </c>
       <c r="N21" s="7">
-        <v>1382429</v>
+        <v>1303261</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7582,46 +7567,46 @@
         <v>1590</v>
       </c>
       <c r="D22" s="7">
-        <v>1740016</v>
+        <v>1913163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H22" s="7">
         <v>2462</v>
       </c>
       <c r="I22" s="7">
-        <v>1794919</v>
+        <v>1742632</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="M22" s="7">
         <v>4052</v>
       </c>
       <c r="N22" s="7">
-        <v>3534935</v>
+        <v>3655796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,46 +7618,46 @@
         <v>1098</v>
       </c>
       <c r="D23" s="7">
-        <v>1024787</v>
+        <v>961959</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>639</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>294</v>
+        <v>450</v>
       </c>
       <c r="H23" s="7">
         <v>1726</v>
       </c>
       <c r="I23" s="7">
-        <v>1241020</v>
+        <v>1221551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>642</v>
+        <v>484</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="M23" s="7">
         <v>2824</v>
       </c>
       <c r="N23" s="7">
-        <v>2265807</v>
+        <v>2183510</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,46 +7669,46 @@
         <v>425</v>
       </c>
       <c r="D24" s="7">
-        <v>379177</v>
+        <v>360433</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="H24" s="7">
         <v>703</v>
       </c>
       <c r="I24" s="7">
-        <v>463072</v>
+        <v>420349</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>651</v>
+        <v>539</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="M24" s="7">
         <v>1128</v>
       </c>
       <c r="N24" s="7">
-        <v>842248</v>
+        <v>780783</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>651</v>
+        <v>545</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,46 +7720,46 @@
         <v>155</v>
       </c>
       <c r="D25" s="7">
-        <v>144414</v>
+        <v>134960</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H25" s="7">
         <v>311</v>
       </c>
       <c r="I25" s="7">
-        <v>211832</v>
+        <v>189369</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="M25" s="7">
         <v>466</v>
       </c>
       <c r="N25" s="7">
-        <v>356246</v>
+        <v>324329</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>263</v>
+        <v>654</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>655</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,46 +7771,46 @@
         <v>85</v>
       </c>
       <c r="D26" s="7">
-        <v>76728</v>
+        <v>70532</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>656</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>662</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>232</v>
+        <v>657</v>
       </c>
       <c r="H26" s="7">
         <v>122</v>
       </c>
       <c r="I26" s="7">
-        <v>72515</v>
+        <v>65183</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>473</v>
+        <v>658</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>309</v>
+        <v>660</v>
       </c>
       <c r="M26" s="7">
         <v>207</v>
       </c>
       <c r="N26" s="7">
-        <v>149244</v>
+        <v>135715</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>664</v>
+        <v>473</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>662</v>
+        <v>434</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>665</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,7 +7822,7 @@
         <v>3353</v>
       </c>
       <c r="D27" s="7">
-        <v>3365122</v>
+        <v>3441048</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7852,7 +7837,7 @@
         <v>5324</v>
       </c>
       <c r="I27" s="7">
-        <v>3783358</v>
+        <v>3639085</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7867,7 +7852,7 @@
         <v>8677</v>
       </c>
       <c r="N27" s="7">
-        <v>7148480</v>
+        <v>7080133</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
